--- a/Mifos Automation Excels/Client/4587-RBI-DISBLOANON02JAN-SPDUEDATEFEE05Jan-INDCOLLSHEETON10JAN.xlsx
+++ b/Mifos Automation Excels/Client/4587-RBI-DISBLOANON02JAN-SPDUEDATEFEE05Jan-INDCOLLSHEETON10JAN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -608,8 +608,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,15 +747,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
@@ -790,18 +793,19 @@
       <c r="L1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11">
@@ -828,8 +832,9 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -862,18 +867,19 @@
       <c r="L3" s="10">
         <v>953.11</v>
       </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
         <v>953.11</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10">
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -908,18 +914,19 @@
       <c r="L4" s="10">
         <v>3.3</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="10">
         <v>0</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -952,18 +959,19 @@
       <c r="L5" s="10">
         <v>0</v>
       </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="10">
         <v>0</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10">
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10">
         <v>853.11</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -996,18 +1004,19 @@
       <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
+      <c r="M6" s="10"/>
       <c r="N6" s="10">
         <v>0</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1040,18 +1049,19 @@
       <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
+      <c r="M7" s="10"/>
       <c r="N7" s="10">
         <v>0</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1084,18 +1094,19 @@
       <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
+      <c r="M8" s="10"/>
       <c r="N8" s="10">
         <v>0</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1128,18 +1139,19 @@
       <c r="L9" s="10">
         <v>0</v>
       </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
+      <c r="M9" s="10"/>
       <c r="N9" s="10">
         <v>0</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1172,18 +1184,19 @@
       <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
+      <c r="M10" s="10"/>
       <c r="N10" s="10">
         <v>0</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1216,18 +1229,19 @@
       <c r="L11" s="10">
         <v>0</v>
       </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
+      <c r="M11" s="10"/>
       <c r="N11" s="10">
         <v>0</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1260,18 +1274,19 @@
       <c r="L12" s="10">
         <v>0</v>
       </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1304,18 +1319,19 @@
       <c r="L13" s="10">
         <v>0</v>
       </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
+      <c r="M13" s="10"/>
       <c r="N13" s="10">
         <v>0</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1348,18 +1364,19 @@
       <c r="L14" s="10">
         <v>0</v>
       </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
+      <c r="M14" s="10"/>
       <c r="N14" s="10">
         <v>0</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1392,14 +1409,15 @@
       <c r="L15" s="10">
         <v>0</v>
       </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
+      <c r="M15" s="10"/>
       <c r="N15" s="10">
         <v>0</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10">
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10">
         <v>854.53</v>
       </c>
     </row>
@@ -1418,8 +1436,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
